--- a/biology/Zoologie/Jammerbergia/Jammerbergia.xlsx
+++ b/biology/Zoologie/Jammerbergia/Jammerbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jammerbergia formops
 Jammerbergia est un genre fossile de temnospondyles mastodonsauroïdes de la famille des Mastodonsauridae. L'espèce type est Jammerbergia formops et, en 2022, le genre est resté monotypique.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La seule espèce connue, datant de l'époque du Trias, a été dénommée Jammerbergia formops en 2003 à partir de vestiges fossiles trouvés dans la zone du Cynognathus en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule espèce connue, datant de l'époque du Trias, a été dénommée Jammerbergia formops en 2003 à partir de vestiges fossiles trouvés dans la zone du Cynognathus en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Ross J. Damiani et John P. Hancox, « New mastodonsaurid temnospondyls from the Cynognathus Assemblage Zone (Upper Beaufort Group; Karoo Basin) of South Africa », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 23, no 1,‎ 11 avril 2003, p. 54-66 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1671/0272-4634(2003)23[54:NMTFTC]2.0.CO;2). </t>
         </is>
